--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns1/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns1/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-8247_Conditions_Actions_Returns1\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
   <si>
     <t>Return</t>
   </si>
@@ -166,12 +166,16 @@
   </si>
   <si>
     <t>Test test9 test9Test</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test6(Integer param1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -205,13 +209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,9 +309,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,8 +365,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma 3" xfId="1" xr:uid="{E4AC8412-F310-4B47-8E8A-635832CD4BD1}"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -727,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
-  <dimension ref="C6:O136"/>
+  <dimension ref="C6:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E113" sqref="E113"/>
@@ -735,15 +737,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,12 +1695,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="16.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1975,7 @@
     <row r="45" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C46" s="11"/>
     </row>
@@ -2197,8 +2199,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns1/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns1/EPBDS-8247_Conditions_Actions_Returns_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-8247_Conditions_Actions_Returns1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-8247_Conditions_Actions_Returns1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D59A360-5C6C-4641-8F45-F6F4862C9DC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019CBAC-75B9-4EE5-AC2A-F5F90C8BD085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="1200" windowWidth="21225" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>Return</t>
   </si>
@@ -87,9 +87,6 @@
     <t>ImplicitMatch1</t>
   </si>
   <si>
-    <t>SmartRules DoubleValue test4(Double param1)</t>
-  </si>
-  <si>
     <t>Test test4 test4Test</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Return1</t>
   </si>
   <si>
-    <t>SmartRules DoubleValue test6(Double param1)</t>
-  </si>
-  <si>
     <t>Test test6 test6Test</t>
   </si>
   <si>
@@ -169,14 +163,16 @@
   </si>
   <si>
     <t>SmartRules DoubleValue test6(Integer param1)</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test4(Integer param1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -192,13 +188,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -209,13 +198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +299,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -331,17 +320,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,14 +338,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,40 +718,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
-  <dimension ref="C6:H136"/>
+  <dimension ref="C6:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="11"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="18"/>
+      <c r="C30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="1" t="s">
         <v>2</v>
       </c>
@@ -771,10 +760,10 @@
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13"/>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31">
         <v>6</v>
       </c>
@@ -783,10 +772,10 @@
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="12">
-        <v>2</v>
-      </c>
-      <c r="D32" s="13"/>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32">
         <v>5</v>
       </c>
@@ -795,10 +784,10 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="12">
-        <v>3</v>
-      </c>
-      <c r="D33" s="13"/>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11"/>
       <c r="E33">
         <v>4</v>
       </c>
@@ -807,10 +796,10 @@
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="12">
-        <v>4</v>
-      </c>
-      <c r="D34" s="13"/>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34">
         <v>3</v>
       </c>
@@ -819,10 +808,10 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="12">
-        <v>5</v>
-      </c>
-      <c r="D35" s="13"/>
+      <c r="C35" s="10">
+        <v>5</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35">
         <v>2</v>
       </c>
@@ -844,18 +833,18 @@
     </row>
     <row r="38" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -866,10 +855,10 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41">
@@ -880,10 +869,10 @@
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
         <v>2</v>
       </c>
       <c r="E42">
@@ -894,10 +883,10 @@
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="12">
-        <v>3</v>
-      </c>
-      <c r="D43" s="13">
+      <c r="C43" s="10">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11">
         <v>3</v>
       </c>
       <c r="E43">
@@ -908,10 +897,10 @@
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C44" s="12">
-        <v>4</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="C44" s="10">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11">
         <v>4</v>
       </c>
       <c r="E44">
@@ -922,10 +911,10 @@
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="12">
-        <v>5</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="C45" s="10">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11">
         <v>5</v>
       </c>
       <c r="E45">
@@ -951,11 +940,11 @@
     </row>
     <row r="48" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="6" t="s">
@@ -992,11 +981,11 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="6" t="s">
@@ -1033,49 +1022,49 @@
     </row>
     <row r="61" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="C62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="12">
-        <v>1</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="C64" s="10">
+        <v>1</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C65" s="12">
-        <v>2</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="12">
-        <v>3</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="C66" s="10">
+        <v>3</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3">
         <v>3</v>
       </c>
@@ -1092,10 +1081,10 @@
     </row>
     <row r="70" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="11"/>
+      <c r="C71" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="6" t="s">
@@ -1123,38 +1112,38 @@
     </row>
     <row r="79" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="11"/>
+      <c r="C80" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C82" s="12">
-        <v>1</v>
-      </c>
-      <c r="D82" s="13"/>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11"/>
       <c r="E82">
         <v>6</v>
       </c>
@@ -1169,10 +1158,10 @@
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C83" s="12">
-        <v>2</v>
-      </c>
-      <c r="D83" s="13"/>
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+      <c r="D83" s="11"/>
       <c r="E83">
         <v>5</v>
       </c>
@@ -1187,10 +1176,10 @@
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C84" s="12">
-        <v>3</v>
-      </c>
-      <c r="D84" s="13"/>
+      <c r="C84" s="10">
+        <v>3</v>
+      </c>
+      <c r="D84" s="11"/>
       <c r="E84">
         <v>4</v>
       </c>
@@ -1205,10 +1194,10 @@
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C85" s="12">
-        <v>4</v>
-      </c>
-      <c r="D85" s="13"/>
+      <c r="C85" s="10">
+        <v>4</v>
+      </c>
+      <c r="D85" s="11"/>
       <c r="E85">
         <v>3</v>
       </c>
@@ -1223,10 +1212,10 @@
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="12">
-        <v>5</v>
-      </c>
-      <c r="D86" s="13"/>
+      <c r="C86" s="10">
+        <v>5</v>
+      </c>
+      <c r="D86" s="11"/>
       <c r="E86">
         <v>2</v>
       </c>
@@ -1260,10 +1249,10 @@
     </row>
     <row r="91" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="11"/>
+      <c r="C92" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="17"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C93" s="6" t="s">
@@ -1291,38 +1280,38 @@
     </row>
     <row r="99" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C100" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="11"/>
+      <c r="C100" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C102" s="12">
-        <v>1</v>
-      </c>
-      <c r="D102" s="13"/>
+      <c r="C102" s="10">
+        <v>1</v>
+      </c>
+      <c r="D102" s="11"/>
       <c r="E102">
         <v>6</v>
       </c>
@@ -1337,10 +1326,10 @@
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C103" s="12">
-        <v>2</v>
-      </c>
-      <c r="D103" s="13"/>
+      <c r="C103" s="10">
+        <v>2</v>
+      </c>
+      <c r="D103" s="11"/>
       <c r="E103">
         <v>5</v>
       </c>
@@ -1355,10 +1344,10 @@
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C104" s="12">
-        <v>3</v>
-      </c>
-      <c r="D104" s="13"/>
+      <c r="C104" s="10">
+        <v>3</v>
+      </c>
+      <c r="D104" s="11"/>
       <c r="E104">
         <v>4</v>
       </c>
@@ -1373,10 +1362,10 @@
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C105" s="12">
-        <v>4</v>
-      </c>
-      <c r="D105" s="13"/>
+      <c r="C105" s="10">
+        <v>4</v>
+      </c>
+      <c r="D105" s="11"/>
       <c r="E105">
         <v>3</v>
       </c>
@@ -1391,10 +1380,10 @@
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="12">
-        <v>5</v>
-      </c>
-      <c r="D106" s="13"/>
+      <c r="C106" s="10">
+        <v>5</v>
+      </c>
+      <c r="D106" s="11"/>
       <c r="E106">
         <v>2</v>
       </c>
@@ -1428,10 +1417,10 @@
     </row>
     <row r="111" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="11"/>
+      <c r="C112" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="17"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C113" s="6" t="s">
@@ -1459,38 +1448,38 @@
     </row>
     <row r="120" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C121" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="11"/>
+      <c r="C121" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H122" s="9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C123" s="12">
-        <v>1</v>
-      </c>
-      <c r="D123" s="13"/>
+      <c r="C123" s="10">
+        <v>1</v>
+      </c>
+      <c r="D123" s="11"/>
       <c r="E123">
         <v>6</v>
       </c>
@@ -1505,10 +1494,10 @@
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C124" s="12">
-        <v>2</v>
-      </c>
-      <c r="D124" s="13"/>
+      <c r="C124" s="10">
+        <v>2</v>
+      </c>
+      <c r="D124" s="11"/>
       <c r="E124">
         <v>5</v>
       </c>
@@ -1523,10 +1512,10 @@
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C125" s="12">
-        <v>3</v>
-      </c>
-      <c r="D125" s="13"/>
+      <c r="C125" s="10">
+        <v>3</v>
+      </c>
+      <c r="D125" s="11"/>
       <c r="E125">
         <v>4</v>
       </c>
@@ -1541,10 +1530,10 @@
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C126" s="12">
-        <v>4</v>
-      </c>
-      <c r="D126" s="13"/>
+      <c r="C126" s="10">
+        <v>4</v>
+      </c>
+      <c r="D126" s="11"/>
       <c r="E126">
         <v>3</v>
       </c>
@@ -1559,10 +1548,10 @@
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="12">
-        <v>5</v>
-      </c>
-      <c r="D127" s="13"/>
+      <c r="C127" s="10">
+        <v>5</v>
+      </c>
+      <c r="D127" s="11"/>
       <c r="E127">
         <v>2</v>
       </c>
@@ -1596,10 +1585,10 @@
     </row>
     <row r="132" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D133" s="11"/>
+      <c r="C133" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="17"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" s="6" t="s">
@@ -1627,6 +1616,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C30:D30"/>
@@ -1643,42 +1668,6 @@
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1695,28 +1684,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1725,10 +1714,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10">
         <v>6</v>
       </c>
@@ -1737,10 +1726,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11">
         <v>5</v>
       </c>
@@ -1749,10 +1738,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12">
         <v>4</v>
       </c>
@@ -1761,10 +1750,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="13"/>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11"/>
       <c r="D13">
         <v>3</v>
       </c>
@@ -1773,10 +1762,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14">
         <v>2</v>
       </c>
@@ -1798,11 +1787,11 @@
     </row>
     <row r="19" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
@@ -1840,18 +1829,18 @@
     <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1860,10 +1849,10 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11"/>
       <c r="D30">
         <v>6</v>
       </c>
@@ -1872,10 +1861,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="13"/>
+      <c r="B31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="11"/>
       <c r="D31">
         <v>5</v>
       </c>
@@ -1884,10 +1873,10 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="13"/>
+      <c r="B32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="11"/>
       <c r="D32">
         <v>4</v>
       </c>
@@ -1896,10 +1885,10 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="13"/>
+      <c r="B33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33">
         <v>3</v>
       </c>
@@ -1908,10 +1897,10 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="13"/>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34">
         <v>2</v>
       </c>
@@ -1933,11 +1922,11 @@
     </row>
     <row r="38" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
@@ -1974,17 +1963,17 @@
     </row>
     <row r="45" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="11"/>
+      <c r="B46" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -2037,10 +2026,10 @@
     </row>
     <row r="56" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="11"/>
+      <c r="B57" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
@@ -2068,17 +2057,17 @@
     </row>
     <row r="63" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="11"/>
+      <c r="B64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -2131,10 +2120,10 @@
     </row>
     <row r="74" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="11"/>
+      <c r="B75" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="17"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
@@ -2157,11 +2146,22 @@
         <v>2</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
@@ -2173,17 +2173,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2199,39 +2188,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="false"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
